--- a/biology/Botanique/Euphorbia_segetalis/Euphorbia_segetalis.xlsx
+++ b/biology/Botanique/Euphorbia_segetalis/Euphorbia_segetalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’euphorbe des moissons[2] (Euphorbia segetalis) est une espèce de plante herbacée méditerranéenne de la famille des Euphorbiacées.
-La floraison a lieu d'avril à octobre[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’euphorbe des moissons (Euphorbia segetalis) est une espèce de plante herbacée méditerranéenne de la famille des Euphorbiacées.
+La floraison a lieu d'avril à octobre.
 </t>
         </is>
       </c>
@@ -512,20 +524,22 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (10 octobre 2015)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (10 octobre 2015) :
 variété Euphorbia segetalis var. pinea
 variété Euphorbia segetalis var. segetalis
-Selon World Checklist of Selected Plant Families (WCSP)  (10 octobre 2015)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (10 octobre 2015) :
 variété Euphorbia segetalis var. pinea (L.) Lange (1877)
 variété Euphorbia segetalis var. segetalis
-Selon NCBI  (10 octobre 2015)[6] :
+Selon NCBI  (10 octobre 2015) :
 variété Euphorbia segetalis var. pinea
 variété Euphorbia segetalis var. segetalis
-Selon The Plant List            (10 octobre 2015)[7] :
+Selon The Plant List            (10 octobre 2015) :
 variété Euphorbia segetalis var. pinea (L.) Lange
-Selon Tropicos                                           (10 octobre 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 octobre 2015) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Euphorbia segetalis subsp. linifolia (Nath. ex L.) Oudejans
 variété Euphorbia segetalis var. litoralis Lange
 variété Euphorbia segetalis var. longibracteata (DC.) Boiss.
